--- a/public/templates/review-audit-template.xlsx
+++ b/public/templates/review-audit-template.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDD1D95D-40C6-4033-913D-398953102DF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Act/onefile-tools/public/templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CACBEB7-5E34-E64E-A15E-6A51C9EA3281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="29340" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -130,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -264,18 +269,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="60" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="60" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,100 +637,100 @@
   <dimension ref="A1:AI250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C254" sqref="C254"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="7" max="24" width="13.5703125" customWidth="1"/>
-    <col min="25" max="27" width="13.5703125" hidden="1" customWidth="1"/>
-    <col min="28" max="33" width="13.5703125" customWidth="1"/>
-    <col min="34" max="34" width="36.28515625" customWidth="1"/>
-    <col min="35" max="35" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="7" max="24" width="13.5" customWidth="1"/>
+    <col min="25" max="27" width="13.5" hidden="1" customWidth="1"/>
+    <col min="28" max="33" width="13.5" customWidth="1"/>
+    <col min="34" max="34" width="36.33203125" customWidth="1"/>
+    <col min="35" max="35" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="98.25" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:35" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11" t="s">
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13" t="s">
         <v>24</v>
       </c>
       <c r="AB1" s="12" t="s">
@@ -756,9 +758,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
@@ -805,9 +807,9 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
@@ -854,9 +856,9 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="1"/>
     </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
@@ -903,9 +905,9 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="1:35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="3"/>
@@ -952,9 +954,9 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="1"/>
     </row>
-    <row r="6" spans="1:35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
@@ -1001,9 +1003,9 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="1"/>
     </row>
-    <row r="7" spans="1:35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
@@ -1050,9 +1052,9 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="1"/>
     </row>
-    <row r="8" spans="1:35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
@@ -1099,9 +1101,9 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="1"/>
     </row>
-    <row r="9" spans="1:35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
@@ -1148,9 +1150,9 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="1"/>
     </row>
-    <row r="10" spans="1:35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
@@ -1197,9 +1199,9 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="1"/>
     </row>
-    <row r="11" spans="1:35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
@@ -1246,9 +1248,9 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="1"/>
     </row>
-    <row r="12" spans="1:35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
@@ -1295,9 +1297,9 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="1"/>
     </row>
-    <row r="13" spans="1:35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
@@ -1344,9 +1346,9 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="1"/>
     </row>
-    <row r="14" spans="1:35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
@@ -1393,9 +1395,9 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="1"/>
     </row>
-    <row r="15" spans="1:35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
@@ -1442,9 +1444,9 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="1"/>
     </row>
-    <row r="16" spans="1:35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
@@ -1491,9 +1493,9 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="1"/>
     </row>
-    <row r="17" spans="1:35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
@@ -1540,9 +1542,9 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="1"/>
     </row>
-    <row r="18" spans="1:35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
@@ -1589,9 +1591,9 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="1"/>
     </row>
-    <row r="19" spans="1:35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
@@ -1638,9 +1640,9 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="1"/>
     </row>
-    <row r="20" spans="1:35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
@@ -1687,9 +1689,9 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="1"/>
     </row>
-    <row r="21" spans="1:35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
@@ -1736,9 +1738,9 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="1"/>
     </row>
-    <row r="22" spans="1:35">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
@@ -1785,9 +1787,9 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="1"/>
     </row>
-    <row r="23" spans="1:35">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
@@ -1834,9 +1836,9 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="1"/>
     </row>
-    <row r="24" spans="1:35">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
@@ -1883,9 +1885,9 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="1"/>
     </row>
-    <row r="25" spans="1:35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
@@ -1932,9 +1934,9 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="1"/>
     </row>
-    <row r="26" spans="1:35">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
@@ -1981,9 +1983,9 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="1"/>
     </row>
-    <row r="27" spans="1:35">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
@@ -2030,9 +2032,9 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="1"/>
     </row>
-    <row r="28" spans="1:35">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
       <c r="E28" s="3"/>
@@ -2079,9 +2081,9 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="1"/>
     </row>
-    <row r="29" spans="1:35">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
@@ -2128,9 +2130,9 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="1"/>
     </row>
-    <row r="30" spans="1:35">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
@@ -2177,9 +2179,9 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="1"/>
     </row>
-    <row r="31" spans="1:35">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
@@ -2226,9 +2228,9 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="1"/>
     </row>
-    <row r="32" spans="1:35">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
@@ -2275,9 +2277,9 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="1"/>
     </row>
-    <row r="33" spans="1:35">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
       <c r="E33" s="3"/>
@@ -2324,9 +2326,9 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="1"/>
     </row>
-    <row r="34" spans="1:35">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
@@ -2373,9 +2375,9 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="1"/>
     </row>
-    <row r="35" spans="1:35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
@@ -2422,9 +2424,9 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="1"/>
     </row>
-    <row r="36" spans="1:35">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
@@ -2471,9 +2473,9 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="1"/>
     </row>
-    <row r="37" spans="1:35">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="2"/>
       <c r="D37" s="1"/>
       <c r="E37" s="3"/>
@@ -2520,9 +2522,9 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="1"/>
     </row>
-    <row r="38" spans="1:35">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
       <c r="E38" s="3"/>
@@ -2569,9 +2571,9 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="1"/>
     </row>
-    <row r="39" spans="1:35">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1"/>
       <c r="E39" s="3"/>
@@ -2618,9 +2620,9 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="1"/>
     </row>
-    <row r="40" spans="1:35">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="2"/>
       <c r="D40" s="1"/>
       <c r="E40" s="3"/>
@@ -2667,9 +2669,9 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="1"/>
     </row>
-    <row r="41" spans="1:35">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="2"/>
       <c r="D41" s="1"/>
       <c r="E41" s="3"/>
@@ -2716,9 +2718,9 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="1"/>
     </row>
-    <row r="42" spans="1:35">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="2"/>
       <c r="D42" s="1"/>
       <c r="E42" s="3"/>
@@ -2765,9 +2767,9 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="1"/>
     </row>
-    <row r="43" spans="1:35">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
       <c r="E43" s="3"/>
@@ -2814,9 +2816,9 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="1"/>
     </row>
-    <row r="44" spans="1:35">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="2"/>
       <c r="D44" s="1"/>
       <c r="E44" s="3"/>
@@ -2863,9 +2865,9 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="1"/>
     </row>
-    <row r="45" spans="1:35">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
       <c r="E45" s="3"/>
@@ -2912,9 +2914,9 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="1"/>
     </row>
-    <row r="46" spans="1:35">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
       <c r="E46" s="3"/>
@@ -2961,9 +2963,9 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="1"/>
     </row>
-    <row r="47" spans="1:35">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
       <c r="E47" s="3"/>
@@ -3010,9 +3012,9 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="1"/>
     </row>
-    <row r="48" spans="1:35">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="2"/>
       <c r="D48" s="1"/>
       <c r="E48" s="3"/>
@@ -3059,9 +3061,9 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="1"/>
     </row>
-    <row r="49" spans="1:35">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="2"/>
       <c r="D49" s="1"/>
       <c r="E49" s="3"/>
@@ -3108,9 +3110,9 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="1"/>
     </row>
-    <row r="50" spans="1:35">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
       <c r="E50" s="3"/>
@@ -3157,9 +3159,9 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="1"/>
     </row>
-    <row r="51" spans="1:35">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
       <c r="E51" s="3"/>
@@ -3206,9 +3208,9 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="1"/>
     </row>
-    <row r="52" spans="1:35">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
       <c r="E52" s="3"/>
@@ -3255,9 +3257,9 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="1"/>
     </row>
-    <row r="53" spans="1:35">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
       <c r="E53" s="3"/>
@@ -3304,9 +3306,9 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="1"/>
     </row>
-    <row r="54" spans="1:35">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
       <c r="E54" s="3"/>
@@ -3353,9 +3355,9 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="1"/>
     </row>
-    <row r="55" spans="1:35">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A55" s="10"/>
+      <c r="B55" s="11"/>
       <c r="C55" s="2"/>
       <c r="D55" s="1"/>
       <c r="E55" s="3"/>
@@ -3402,9 +3404,9 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="1"/>
     </row>
-    <row r="56" spans="1:35">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14"/>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
       <c r="E56" s="3"/>
@@ -3451,9 +3453,9 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="1"/>
     </row>
-    <row r="57" spans="1:35">
-      <c r="A57" s="13"/>
-      <c r="B57" s="14"/>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
       <c r="E57" s="3"/>
@@ -3500,9 +3502,9 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="1"/>
     </row>
-    <row r="58" spans="1:35">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14"/>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
       <c r="E58" s="3"/>
@@ -3549,9 +3551,9 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="1"/>
     </row>
-    <row r="59" spans="1:35">
-      <c r="A59" s="13"/>
-      <c r="B59" s="14"/>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A59" s="10"/>
+      <c r="B59" s="11"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
       <c r="E59" s="3"/>
@@ -3598,9 +3600,9 @@
       <c r="AH59" s="2"/>
       <c r="AI59" s="1"/>
     </row>
-    <row r="60" spans="1:35">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14"/>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
       <c r="C60" s="2"/>
       <c r="D60" s="1"/>
       <c r="E60" s="3"/>
@@ -3647,9 +3649,9 @@
       <c r="AH60" s="2"/>
       <c r="AI60" s="1"/>
     </row>
-    <row r="61" spans="1:35">
-      <c r="A61" s="13"/>
-      <c r="B61" s="14"/>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A61" s="10"/>
+      <c r="B61" s="11"/>
       <c r="C61" s="2"/>
       <c r="D61" s="1"/>
       <c r="E61" s="3"/>
@@ -3696,9 +3698,9 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="1"/>
     </row>
-    <row r="62" spans="1:35">
-      <c r="A62" s="13"/>
-      <c r="B62" s="14"/>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A62" s="10"/>
+      <c r="B62" s="11"/>
       <c r="C62" s="2"/>
       <c r="D62" s="1"/>
       <c r="E62" s="3"/>
@@ -3745,9 +3747,9 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="1"/>
     </row>
-    <row r="63" spans="1:35">
-      <c r="A63" s="13"/>
-      <c r="B63" s="14"/>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A63" s="10"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="2"/>
       <c r="D63" s="1"/>
       <c r="E63" s="3"/>
@@ -3794,9 +3796,9 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="1"/>
     </row>
-    <row r="64" spans="1:35">
-      <c r="A64" s="13"/>
-      <c r="B64" s="14"/>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
+      <c r="B64" s="11"/>
       <c r="C64" s="2"/>
       <c r="D64" s="1"/>
       <c r="E64" s="3"/>
@@ -3843,9 +3845,9 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="1"/>
     </row>
-    <row r="65" spans="1:35">
-      <c r="A65" s="13"/>
-      <c r="B65" s="14"/>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A65" s="10"/>
+      <c r="B65" s="11"/>
       <c r="C65" s="2"/>
       <c r="D65" s="1"/>
       <c r="E65" s="3"/>
@@ -3892,9 +3894,9 @@
       <c r="AH65" s="2"/>
       <c r="AI65" s="1"/>
     </row>
-    <row r="66" spans="1:35">
-      <c r="A66" s="13"/>
-      <c r="B66" s="14"/>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A66" s="10"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="2"/>
       <c r="D66" s="1"/>
       <c r="E66" s="3"/>
@@ -3941,9 +3943,9 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="1"/>
     </row>
-    <row r="67" spans="1:35">
-      <c r="A67" s="13"/>
-      <c r="B67" s="14"/>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A67" s="10"/>
+      <c r="B67" s="11"/>
       <c r="C67" s="2"/>
       <c r="D67" s="1"/>
       <c r="E67" s="3"/>
@@ -3990,9 +3992,9 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="1"/>
     </row>
-    <row r="68" spans="1:35">
-      <c r="A68" s="13"/>
-      <c r="B68" s="14"/>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A68" s="10"/>
+      <c r="B68" s="11"/>
       <c r="C68" s="2"/>
       <c r="D68" s="1"/>
       <c r="E68" s="3"/>
@@ -4039,9 +4041,9 @@
       <c r="AH68" s="2"/>
       <c r="AI68" s="1"/>
     </row>
-    <row r="69" spans="1:35">
-      <c r="A69" s="13"/>
-      <c r="B69" s="14"/>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A69" s="10"/>
+      <c r="B69" s="11"/>
       <c r="C69" s="2"/>
       <c r="D69" s="1"/>
       <c r="E69" s="3"/>
@@ -4088,9 +4090,9 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="1"/>
     </row>
-    <row r="70" spans="1:35">
-      <c r="A70" s="13"/>
-      <c r="B70" s="14"/>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A70" s="10"/>
+      <c r="B70" s="11"/>
       <c r="C70" s="2"/>
       <c r="D70" s="1"/>
       <c r="E70" s="3"/>
@@ -4137,9 +4139,9 @@
       <c r="AH70" s="2"/>
       <c r="AI70" s="1"/>
     </row>
-    <row r="71" spans="1:35">
-      <c r="A71" s="13"/>
-      <c r="B71" s="14"/>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A71" s="10"/>
+      <c r="B71" s="11"/>
       <c r="C71" s="2"/>
       <c r="D71" s="1"/>
       <c r="E71" s="3"/>
@@ -4186,9 +4188,9 @@
       <c r="AH71" s="2"/>
       <c r="AI71" s="1"/>
     </row>
-    <row r="72" spans="1:35">
-      <c r="A72" s="13"/>
-      <c r="B72" s="14"/>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A72" s="10"/>
+      <c r="B72" s="11"/>
       <c r="C72" s="2"/>
       <c r="D72" s="1"/>
       <c r="E72" s="3"/>
@@ -4235,9 +4237,9 @@
       <c r="AH72" s="2"/>
       <c r="AI72" s="1"/>
     </row>
-    <row r="73" spans="1:35">
-      <c r="A73" s="13"/>
-      <c r="B73" s="14"/>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A73" s="10"/>
+      <c r="B73" s="11"/>
       <c r="C73" s="2"/>
       <c r="D73" s="1"/>
       <c r="E73" s="3"/>
@@ -4284,9 +4286,9 @@
       <c r="AH73" s="2"/>
       <c r="AI73" s="1"/>
     </row>
-    <row r="74" spans="1:35">
-      <c r="A74" s="13"/>
-      <c r="B74" s="14"/>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A74" s="10"/>
+      <c r="B74" s="11"/>
       <c r="C74" s="2"/>
       <c r="D74" s="1"/>
       <c r="E74" s="3"/>
@@ -4333,9 +4335,9 @@
       <c r="AH74" s="2"/>
       <c r="AI74" s="1"/>
     </row>
-    <row r="75" spans="1:35">
-      <c r="A75" s="13"/>
-      <c r="B75" s="14"/>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A75" s="10"/>
+      <c r="B75" s="11"/>
       <c r="C75" s="2"/>
       <c r="D75" s="1"/>
       <c r="E75" s="3"/>
@@ -4382,9 +4384,9 @@
       <c r="AH75" s="2"/>
       <c r="AI75" s="1"/>
     </row>
-    <row r="76" spans="1:35">
-      <c r="A76" s="13"/>
-      <c r="B76" s="14"/>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A76" s="10"/>
+      <c r="B76" s="11"/>
       <c r="C76" s="2"/>
       <c r="D76" s="1"/>
       <c r="E76" s="3"/>
@@ -4431,9 +4433,9 @@
       <c r="AH76" s="2"/>
       <c r="AI76" s="1"/>
     </row>
-    <row r="77" spans="1:35">
-      <c r="A77" s="13"/>
-      <c r="B77" s="14"/>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A77" s="10"/>
+      <c r="B77" s="11"/>
       <c r="C77" s="2"/>
       <c r="D77" s="1"/>
       <c r="E77" s="3"/>
@@ -4480,9 +4482,9 @@
       <c r="AH77" s="2"/>
       <c r="AI77" s="1"/>
     </row>
-    <row r="78" spans="1:35">
-      <c r="A78" s="13"/>
-      <c r="B78" s="14"/>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A78" s="10"/>
+      <c r="B78" s="11"/>
       <c r="C78" s="2"/>
       <c r="D78" s="1"/>
       <c r="E78" s="3"/>
@@ -4529,9 +4531,9 @@
       <c r="AH78" s="2"/>
       <c r="AI78" s="1"/>
     </row>
-    <row r="79" spans="1:35">
-      <c r="A79" s="13"/>
-      <c r="B79" s="14"/>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A79" s="10"/>
+      <c r="B79" s="11"/>
       <c r="C79" s="2"/>
       <c r="D79" s="1"/>
       <c r="E79" s="3"/>
@@ -4578,9 +4580,9 @@
       <c r="AH79" s="2"/>
       <c r="AI79" s="1"/>
     </row>
-    <row r="80" spans="1:35">
-      <c r="A80" s="13"/>
-      <c r="B80" s="14"/>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A80" s="10"/>
+      <c r="B80" s="11"/>
       <c r="C80" s="2"/>
       <c r="D80" s="1"/>
       <c r="E80" s="3"/>
@@ -4627,9 +4629,9 @@
       <c r="AH80" s="2"/>
       <c r="AI80" s="1"/>
     </row>
-    <row r="81" spans="1:35">
-      <c r="A81" s="13"/>
-      <c r="B81" s="14"/>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A81" s="10"/>
+      <c r="B81" s="11"/>
       <c r="C81" s="2"/>
       <c r="D81" s="1"/>
       <c r="E81" s="3"/>
@@ -4676,9 +4678,9 @@
       <c r="AH81" s="2"/>
       <c r="AI81" s="1"/>
     </row>
-    <row r="82" spans="1:35">
-      <c r="A82" s="13"/>
-      <c r="B82" s="14"/>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A82" s="10"/>
+      <c r="B82" s="11"/>
       <c r="C82" s="2"/>
       <c r="D82" s="1"/>
       <c r="E82" s="3"/>
@@ -4725,9 +4727,9 @@
       <c r="AH82" s="2"/>
       <c r="AI82" s="1"/>
     </row>
-    <row r="83" spans="1:35">
-      <c r="A83" s="13"/>
-      <c r="B83" s="14"/>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A83" s="10"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2"/>
       <c r="D83" s="1"/>
       <c r="E83" s="3"/>
@@ -4774,9 +4776,9 @@
       <c r="AH83" s="2"/>
       <c r="AI83" s="1"/>
     </row>
-    <row r="84" spans="1:35">
-      <c r="A84" s="13"/>
-      <c r="B84" s="14"/>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A84" s="10"/>
+      <c r="B84" s="11"/>
       <c r="C84" s="2"/>
       <c r="D84" s="1"/>
       <c r="E84" s="3"/>
@@ -4823,9 +4825,9 @@
       <c r="AH84" s="2"/>
       <c r="AI84" s="1"/>
     </row>
-    <row r="85" spans="1:35">
-      <c r="A85" s="13"/>
-      <c r="B85" s="14"/>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A85" s="10"/>
+      <c r="B85" s="11"/>
       <c r="C85" s="2"/>
       <c r="D85" s="1"/>
       <c r="E85" s="3"/>
@@ -4872,9 +4874,9 @@
       <c r="AH85" s="2"/>
       <c r="AI85" s="1"/>
     </row>
-    <row r="86" spans="1:35">
-      <c r="A86" s="13"/>
-      <c r="B86" s="14"/>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A86" s="10"/>
+      <c r="B86" s="11"/>
       <c r="C86" s="2"/>
       <c r="D86" s="1"/>
       <c r="E86" s="3"/>
@@ -4921,9 +4923,9 @@
       <c r="AH86" s="2"/>
       <c r="AI86" s="1"/>
     </row>
-    <row r="87" spans="1:35">
-      <c r="A87" s="13"/>
-      <c r="B87" s="14"/>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A87" s="10"/>
+      <c r="B87" s="11"/>
       <c r="C87" s="2"/>
       <c r="D87" s="1"/>
       <c r="E87" s="3"/>
@@ -4970,9 +4972,9 @@
       <c r="AH87" s="2"/>
       <c r="AI87" s="1"/>
     </row>
-    <row r="88" spans="1:35">
-      <c r="A88" s="13"/>
-      <c r="B88" s="14"/>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A88" s="10"/>
+      <c r="B88" s="11"/>
       <c r="C88" s="2"/>
       <c r="D88" s="1"/>
       <c r="E88" s="3"/>
@@ -5019,9 +5021,9 @@
       <c r="AH88" s="2"/>
       <c r="AI88" s="1"/>
     </row>
-    <row r="89" spans="1:35">
-      <c r="A89" s="13"/>
-      <c r="B89" s="14"/>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A89" s="10"/>
+      <c r="B89" s="11"/>
       <c r="C89" s="2"/>
       <c r="D89" s="1"/>
       <c r="E89" s="3"/>
@@ -5068,9 +5070,9 @@
       <c r="AH89" s="2"/>
       <c r="AI89" s="1"/>
     </row>
-    <row r="90" spans="1:35">
-      <c r="A90" s="13"/>
-      <c r="B90" s="14"/>
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A90" s="10"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="2"/>
       <c r="D90" s="1"/>
       <c r="E90" s="3"/>
@@ -5117,9 +5119,9 @@
       <c r="AH90" s="2"/>
       <c r="AI90" s="1"/>
     </row>
-    <row r="91" spans="1:35">
-      <c r="A91" s="13"/>
-      <c r="B91" s="14"/>
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A91" s="10"/>
+      <c r="B91" s="11"/>
       <c r="C91" s="2"/>
       <c r="D91" s="1"/>
       <c r="E91" s="3"/>
@@ -5166,9 +5168,9 @@
       <c r="AH91" s="2"/>
       <c r="AI91" s="1"/>
     </row>
-    <row r="92" spans="1:35">
-      <c r="A92" s="13"/>
-      <c r="B92" s="14"/>
+    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A92" s="10"/>
+      <c r="B92" s="11"/>
       <c r="C92" s="2"/>
       <c r="D92" s="1"/>
       <c r="E92" s="3"/>
@@ -5215,9 +5217,9 @@
       <c r="AH92" s="2"/>
       <c r="AI92" s="1"/>
     </row>
-    <row r="93" spans="1:35">
-      <c r="A93" s="13"/>
-      <c r="B93" s="14"/>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A93" s="10"/>
+      <c r="B93" s="11"/>
       <c r="C93" s="2"/>
       <c r="D93" s="1"/>
       <c r="E93" s="3"/>
@@ -5264,9 +5266,9 @@
       <c r="AH93" s="2"/>
       <c r="AI93" s="1"/>
     </row>
-    <row r="94" spans="1:35">
-      <c r="A94" s="13"/>
-      <c r="B94" s="14"/>
+    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A94" s="10"/>
+      <c r="B94" s="11"/>
       <c r="C94" s="2"/>
       <c r="D94" s="1"/>
       <c r="E94" s="3"/>
@@ -5313,9 +5315,9 @@
       <c r="AH94" s="2"/>
       <c r="AI94" s="1"/>
     </row>
-    <row r="95" spans="1:35">
-      <c r="A95" s="13"/>
-      <c r="B95" s="14"/>
+    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A95" s="10"/>
+      <c r="B95" s="11"/>
       <c r="C95" s="2"/>
       <c r="D95" s="1"/>
       <c r="E95" s="3"/>
@@ -5362,9 +5364,9 @@
       <c r="AH95" s="2"/>
       <c r="AI95" s="1"/>
     </row>
-    <row r="96" spans="1:35">
-      <c r="A96" s="13"/>
-      <c r="B96" s="14"/>
+    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A96" s="10"/>
+      <c r="B96" s="11"/>
       <c r="C96" s="2"/>
       <c r="D96" s="1"/>
       <c r="E96" s="3"/>
@@ -5411,9 +5413,9 @@
       <c r="AH96" s="2"/>
       <c r="AI96" s="1"/>
     </row>
-    <row r="97" spans="1:35">
-      <c r="A97" s="13"/>
-      <c r="B97" s="14"/>
+    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A97" s="10"/>
+      <c r="B97" s="11"/>
       <c r="C97" s="2"/>
       <c r="D97" s="1"/>
       <c r="E97" s="3"/>
@@ -5460,9 +5462,9 @@
       <c r="AH97" s="2"/>
       <c r="AI97" s="1"/>
     </row>
-    <row r="98" spans="1:35">
-      <c r="A98" s="13"/>
-      <c r="B98" s="14"/>
+    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A98" s="10"/>
+      <c r="B98" s="11"/>
       <c r="C98" s="2"/>
       <c r="D98" s="1"/>
       <c r="E98" s="3"/>
@@ -5509,9 +5511,9 @@
       <c r="AH98" s="2"/>
       <c r="AI98" s="1"/>
     </row>
-    <row r="99" spans="1:35">
-      <c r="A99" s="13"/>
-      <c r="B99" s="14"/>
+    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A99" s="10"/>
+      <c r="B99" s="11"/>
       <c r="C99" s="2"/>
       <c r="D99" s="1"/>
       <c r="E99" s="3"/>
@@ -5558,9 +5560,9 @@
       <c r="AH99" s="2"/>
       <c r="AI99" s="1"/>
     </row>
-    <row r="100" spans="1:35">
-      <c r="A100" s="13"/>
-      <c r="B100" s="14"/>
+    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A100" s="10"/>
+      <c r="B100" s="11"/>
       <c r="C100" s="2"/>
       <c r="D100" s="1"/>
       <c r="E100" s="3"/>
@@ -5607,9 +5609,9 @@
       <c r="AH100" s="2"/>
       <c r="AI100" s="1"/>
     </row>
-    <row r="101" spans="1:35">
-      <c r="A101" s="13"/>
-      <c r="B101" s="14"/>
+    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A101" s="10"/>
+      <c r="B101" s="11"/>
       <c r="C101" s="2"/>
       <c r="D101" s="1"/>
       <c r="E101" s="3"/>
@@ -5656,9 +5658,9 @@
       <c r="AH101" s="2"/>
       <c r="AI101" s="1"/>
     </row>
-    <row r="102" spans="1:35">
-      <c r="A102" s="13"/>
-      <c r="B102" s="14"/>
+    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A102" s="10"/>
+      <c r="B102" s="11"/>
       <c r="C102" s="2"/>
       <c r="D102" s="1"/>
       <c r="E102" s="3"/>
@@ -5705,9 +5707,9 @@
       <c r="AH102" s="2"/>
       <c r="AI102" s="1"/>
     </row>
-    <row r="103" spans="1:35">
-      <c r="A103" s="13"/>
-      <c r="B103" s="14"/>
+    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A103" s="10"/>
+      <c r="B103" s="11"/>
       <c r="C103" s="2"/>
       <c r="D103" s="1"/>
       <c r="E103" s="3"/>
@@ -5754,9 +5756,9 @@
       <c r="AH103" s="2"/>
       <c r="AI103" s="1"/>
     </row>
-    <row r="104" spans="1:35">
-      <c r="A104" s="13"/>
-      <c r="B104" s="14"/>
+    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A104" s="10"/>
+      <c r="B104" s="11"/>
       <c r="C104" s="2"/>
       <c r="D104" s="1"/>
       <c r="E104" s="3"/>
@@ -5803,9 +5805,9 @@
       <c r="AH104" s="2"/>
       <c r="AI104" s="1"/>
     </row>
-    <row r="105" spans="1:35">
-      <c r="A105" s="13"/>
-      <c r="B105" s="14"/>
+    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A105" s="10"/>
+      <c r="B105" s="11"/>
       <c r="C105" s="2"/>
       <c r="D105" s="1"/>
       <c r="E105" s="3"/>
@@ -5852,9 +5854,9 @@
       <c r="AH105" s="2"/>
       <c r="AI105" s="1"/>
     </row>
-    <row r="106" spans="1:35">
-      <c r="A106" s="13"/>
-      <c r="B106" s="14"/>
+    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A106" s="10"/>
+      <c r="B106" s="11"/>
       <c r="C106" s="2"/>
       <c r="D106" s="1"/>
       <c r="E106" s="3"/>
@@ -5901,9 +5903,9 @@
       <c r="AH106" s="2"/>
       <c r="AI106" s="1"/>
     </row>
-    <row r="107" spans="1:35">
-      <c r="A107" s="13"/>
-      <c r="B107" s="14"/>
+    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A107" s="10"/>
+      <c r="B107" s="11"/>
       <c r="C107" s="2"/>
       <c r="D107" s="1"/>
       <c r="E107" s="3"/>
@@ -5950,9 +5952,9 @@
       <c r="AH107" s="2"/>
       <c r="AI107" s="1"/>
     </row>
-    <row r="108" spans="1:35">
-      <c r="A108" s="13"/>
-      <c r="B108" s="14"/>
+    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A108" s="10"/>
+      <c r="B108" s="11"/>
       <c r="C108" s="2"/>
       <c r="D108" s="1"/>
       <c r="E108" s="3"/>
@@ -5999,9 +6001,9 @@
       <c r="AH108" s="2"/>
       <c r="AI108" s="1"/>
     </row>
-    <row r="109" spans="1:35">
-      <c r="A109" s="13"/>
-      <c r="B109" s="14"/>
+    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A109" s="10"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2"/>
       <c r="D109" s="1"/>
       <c r="E109" s="3"/>
@@ -6048,9 +6050,9 @@
       <c r="AH109" s="2"/>
       <c r="AI109" s="1"/>
     </row>
-    <row r="110" spans="1:35">
-      <c r="A110" s="13"/>
-      <c r="B110" s="14"/>
+    <row r="110" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A110" s="10"/>
+      <c r="B110" s="11"/>
       <c r="C110" s="2"/>
       <c r="D110" s="1"/>
       <c r="E110" s="3"/>
@@ -6097,9 +6099,9 @@
       <c r="AH110" s="2"/>
       <c r="AI110" s="1"/>
     </row>
-    <row r="111" spans="1:35">
-      <c r="A111" s="13"/>
-      <c r="B111" s="14"/>
+    <row r="111" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A111" s="10"/>
+      <c r="B111" s="11"/>
       <c r="C111" s="2"/>
       <c r="D111" s="1"/>
       <c r="E111" s="3"/>
@@ -6146,9 +6148,9 @@
       <c r="AH111" s="2"/>
       <c r="AI111" s="1"/>
     </row>
-    <row r="112" spans="1:35">
-      <c r="A112" s="13"/>
-      <c r="B112" s="14"/>
+    <row r="112" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A112" s="10"/>
+      <c r="B112" s="11"/>
       <c r="C112" s="2"/>
       <c r="D112" s="1"/>
       <c r="E112" s="3"/>
@@ -6195,9 +6197,9 @@
       <c r="AH112" s="2"/>
       <c r="AI112" s="1"/>
     </row>
-    <row r="113" spans="1:35">
-      <c r="A113" s="13"/>
-      <c r="B113" s="14"/>
+    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A113" s="10"/>
+      <c r="B113" s="11"/>
       <c r="C113" s="2"/>
       <c r="D113" s="1"/>
       <c r="E113" s="3"/>
@@ -6244,9 +6246,9 @@
       <c r="AH113" s="2"/>
       <c r="AI113" s="1"/>
     </row>
-    <row r="114" spans="1:35">
-      <c r="A114" s="13"/>
-      <c r="B114" s="14"/>
+    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A114" s="10"/>
+      <c r="B114" s="11"/>
       <c r="C114" s="2"/>
       <c r="D114" s="1"/>
       <c r="E114" s="3"/>
@@ -6293,9 +6295,9 @@
       <c r="AH114" s="2"/>
       <c r="AI114" s="1"/>
     </row>
-    <row r="115" spans="1:35">
-      <c r="A115" s="13"/>
-      <c r="B115" s="14"/>
+    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A115" s="10"/>
+      <c r="B115" s="11"/>
       <c r="C115" s="2"/>
       <c r="D115" s="1"/>
       <c r="E115" s="3"/>
@@ -6342,9 +6344,9 @@
       <c r="AH115" s="2"/>
       <c r="AI115" s="1"/>
     </row>
-    <row r="116" spans="1:35">
-      <c r="A116" s="13"/>
-      <c r="B116" s="14"/>
+    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A116" s="10"/>
+      <c r="B116" s="11"/>
       <c r="C116" s="2"/>
       <c r="D116" s="1"/>
       <c r="E116" s="3"/>
@@ -6391,9 +6393,9 @@
       <c r="AH116" s="2"/>
       <c r="AI116" s="1"/>
     </row>
-    <row r="117" spans="1:35">
-      <c r="A117" s="13"/>
-      <c r="B117" s="14"/>
+    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A117" s="10"/>
+      <c r="B117" s="11"/>
       <c r="C117" s="2"/>
       <c r="D117" s="1"/>
       <c r="E117" s="3"/>
@@ -6440,9 +6442,9 @@
       <c r="AH117" s="2"/>
       <c r="AI117" s="1"/>
     </row>
-    <row r="118" spans="1:35">
-      <c r="A118" s="13"/>
-      <c r="B118" s="14"/>
+    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A118" s="10"/>
+      <c r="B118" s="11"/>
       <c r="C118" s="2"/>
       <c r="D118" s="1"/>
       <c r="E118" s="3"/>
@@ -6489,9 +6491,9 @@
       <c r="AH118" s="2"/>
       <c r="AI118" s="1"/>
     </row>
-    <row r="119" spans="1:35">
-      <c r="A119" s="13"/>
-      <c r="B119" s="14"/>
+    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A119" s="10"/>
+      <c r="B119" s="11"/>
       <c r="C119" s="2"/>
       <c r="D119" s="1"/>
       <c r="E119" s="3"/>
@@ -6538,9 +6540,9 @@
       <c r="AH119" s="2"/>
       <c r="AI119" s="1"/>
     </row>
-    <row r="120" spans="1:35">
-      <c r="A120" s="13"/>
-      <c r="B120" s="14"/>
+    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A120" s="10"/>
+      <c r="B120" s="11"/>
       <c r="C120" s="2"/>
       <c r="D120" s="1"/>
       <c r="E120" s="3"/>
@@ -6587,9 +6589,9 @@
       <c r="AH120" s="2"/>
       <c r="AI120" s="1"/>
     </row>
-    <row r="121" spans="1:35">
-      <c r="A121" s="13"/>
-      <c r="B121" s="14"/>
+    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A121" s="10"/>
+      <c r="B121" s="11"/>
       <c r="C121" s="2"/>
       <c r="D121" s="1"/>
       <c r="E121" s="3"/>
@@ -6636,9 +6638,9 @@
       <c r="AH121" s="2"/>
       <c r="AI121" s="1"/>
     </row>
-    <row r="122" spans="1:35">
-      <c r="A122" s="13"/>
-      <c r="B122" s="14"/>
+    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A122" s="10"/>
+      <c r="B122" s="11"/>
       <c r="C122" s="2"/>
       <c r="D122" s="1"/>
       <c r="E122" s="3"/>
@@ -6685,9 +6687,9 @@
       <c r="AH122" s="2"/>
       <c r="AI122" s="1"/>
     </row>
-    <row r="123" spans="1:35">
-      <c r="A123" s="13"/>
-      <c r="B123" s="14"/>
+    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A123" s="10"/>
+      <c r="B123" s="11"/>
       <c r="C123" s="2"/>
       <c r="D123" s="1"/>
       <c r="E123" s="3"/>
@@ -6734,9 +6736,9 @@
       <c r="AH123" s="2"/>
       <c r="AI123" s="1"/>
     </row>
-    <row r="124" spans="1:35">
-      <c r="A124" s="13"/>
-      <c r="B124" s="14"/>
+    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A124" s="10"/>
+      <c r="B124" s="11"/>
       <c r="C124" s="2"/>
       <c r="D124" s="1"/>
       <c r="E124" s="3"/>
@@ -6783,9 +6785,9 @@
       <c r="AH124" s="2"/>
       <c r="AI124" s="1"/>
     </row>
-    <row r="125" spans="1:35">
-      <c r="A125" s="13"/>
-      <c r="B125" s="14"/>
+    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A125" s="10"/>
+      <c r="B125" s="11"/>
       <c r="C125" s="2"/>
       <c r="D125" s="1"/>
       <c r="E125" s="3"/>
@@ -6832,9 +6834,9 @@
       <c r="AH125" s="2"/>
       <c r="AI125" s="1"/>
     </row>
-    <row r="126" spans="1:35">
-      <c r="A126" s="13"/>
-      <c r="B126" s="14"/>
+    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A126" s="10"/>
+      <c r="B126" s="11"/>
       <c r="C126" s="2"/>
       <c r="D126" s="1"/>
       <c r="E126" s="3"/>
@@ -6881,9 +6883,9 @@
       <c r="AH126" s="2"/>
       <c r="AI126" s="1"/>
     </row>
-    <row r="127" spans="1:35">
-      <c r="A127" s="13"/>
-      <c r="B127" s="14"/>
+    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A127" s="10"/>
+      <c r="B127" s="11"/>
       <c r="C127" s="2"/>
       <c r="D127" s="1"/>
       <c r="E127" s="3"/>
@@ -6930,9 +6932,9 @@
       <c r="AH127" s="2"/>
       <c r="AI127" s="1"/>
     </row>
-    <row r="128" spans="1:35">
-      <c r="A128" s="13"/>
-      <c r="B128" s="14"/>
+    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A128" s="10"/>
+      <c r="B128" s="11"/>
       <c r="C128" s="2"/>
       <c r="D128" s="1"/>
       <c r="E128" s="3"/>
@@ -6979,9 +6981,9 @@
       <c r="AH128" s="2"/>
       <c r="AI128" s="1"/>
     </row>
-    <row r="129" spans="1:35">
-      <c r="A129" s="13"/>
-      <c r="B129" s="14"/>
+    <row r="129" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A129" s="10"/>
+      <c r="B129" s="11"/>
       <c r="C129" s="2"/>
       <c r="D129" s="1"/>
       <c r="E129" s="3"/>
@@ -7028,9 +7030,9 @@
       <c r="AH129" s="2"/>
       <c r="AI129" s="1"/>
     </row>
-    <row r="130" spans="1:35">
-      <c r="A130" s="13"/>
-      <c r="B130" s="14"/>
+    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A130" s="10"/>
+      <c r="B130" s="11"/>
       <c r="C130" s="2"/>
       <c r="D130" s="1"/>
       <c r="E130" s="3"/>
@@ -7077,9 +7079,9 @@
       <c r="AH130" s="2"/>
       <c r="AI130" s="1"/>
     </row>
-    <row r="131" spans="1:35">
-      <c r="A131" s="13"/>
-      <c r="B131" s="14"/>
+    <row r="131" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A131" s="10"/>
+      <c r="B131" s="11"/>
       <c r="C131" s="2"/>
       <c r="D131" s="1"/>
       <c r="E131" s="3"/>
@@ -7126,9 +7128,9 @@
       <c r="AH131" s="2"/>
       <c r="AI131" s="1"/>
     </row>
-    <row r="132" spans="1:35">
-      <c r="A132" s="13"/>
-      <c r="B132" s="14"/>
+    <row r="132" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A132" s="10"/>
+      <c r="B132" s="11"/>
       <c r="C132" s="2"/>
       <c r="D132" s="1"/>
       <c r="E132" s="3"/>
@@ -7175,9 +7177,9 @@
       <c r="AH132" s="2"/>
       <c r="AI132" s="1"/>
     </row>
-    <row r="133" spans="1:35">
-      <c r="A133" s="13"/>
-      <c r="B133" s="14"/>
+    <row r="133" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A133" s="10"/>
+      <c r="B133" s="11"/>
       <c r="C133" s="2"/>
       <c r="D133" s="1"/>
       <c r="E133" s="3"/>
@@ -7224,9 +7226,9 @@
       <c r="AH133" s="2"/>
       <c r="AI133" s="1"/>
     </row>
-    <row r="134" spans="1:35">
-      <c r="A134" s="13"/>
-      <c r="B134" s="14"/>
+    <row r="134" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A134" s="10"/>
+      <c r="B134" s="11"/>
       <c r="C134" s="2"/>
       <c r="D134" s="1"/>
       <c r="E134" s="3"/>
@@ -7273,9 +7275,9 @@
       <c r="AH134" s="2"/>
       <c r="AI134" s="1"/>
     </row>
-    <row r="135" spans="1:35">
-      <c r="A135" s="13"/>
-      <c r="B135" s="14"/>
+    <row r="135" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A135" s="10"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2"/>
       <c r="D135" s="1"/>
       <c r="E135" s="3"/>
@@ -7322,9 +7324,9 @@
       <c r="AH135" s="2"/>
       <c r="AI135" s="1"/>
     </row>
-    <row r="136" spans="1:35">
-      <c r="A136" s="13"/>
-      <c r="B136" s="14"/>
+    <row r="136" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A136" s="10"/>
+      <c r="B136" s="11"/>
       <c r="C136" s="2"/>
       <c r="D136" s="1"/>
       <c r="E136" s="3"/>
@@ -7371,9 +7373,9 @@
       <c r="AH136" s="2"/>
       <c r="AI136" s="1"/>
     </row>
-    <row r="137" spans="1:35">
-      <c r="A137" s="13"/>
-      <c r="B137" s="14"/>
+    <row r="137" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A137" s="10"/>
+      <c r="B137" s="11"/>
       <c r="C137" s="2"/>
       <c r="D137" s="1"/>
       <c r="E137" s="3"/>
@@ -7420,9 +7422,9 @@
       <c r="AH137" s="2"/>
       <c r="AI137" s="1"/>
     </row>
-    <row r="138" spans="1:35">
-      <c r="A138" s="13"/>
-      <c r="B138" s="14"/>
+    <row r="138" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A138" s="10"/>
+      <c r="B138" s="11"/>
       <c r="C138" s="2"/>
       <c r="D138" s="1"/>
       <c r="E138" s="3"/>
@@ -7469,9 +7471,9 @@
       <c r="AH138" s="2"/>
       <c r="AI138" s="1"/>
     </row>
-    <row r="139" spans="1:35">
-      <c r="A139" s="13"/>
-      <c r="B139" s="14"/>
+    <row r="139" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A139" s="10"/>
+      <c r="B139" s="11"/>
       <c r="C139" s="2"/>
       <c r="D139" s="1"/>
       <c r="E139" s="3"/>
@@ -7518,9 +7520,9 @@
       <c r="AH139" s="2"/>
       <c r="AI139" s="1"/>
     </row>
-    <row r="140" spans="1:35">
-      <c r="A140" s="13"/>
-      <c r="B140" s="14"/>
+    <row r="140" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A140" s="10"/>
+      <c r="B140" s="11"/>
       <c r="C140" s="2"/>
       <c r="D140" s="1"/>
       <c r="E140" s="3"/>
@@ -7567,9 +7569,9 @@
       <c r="AH140" s="2"/>
       <c r="AI140" s="1"/>
     </row>
-    <row r="141" spans="1:35">
-      <c r="A141" s="13"/>
-      <c r="B141" s="14"/>
+    <row r="141" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A141" s="10"/>
+      <c r="B141" s="11"/>
       <c r="C141" s="2"/>
       <c r="D141" s="1"/>
       <c r="E141" s="3"/>
@@ -7616,9 +7618,9 @@
       <c r="AH141" s="2"/>
       <c r="AI141" s="1"/>
     </row>
-    <row r="142" spans="1:35">
-      <c r="A142" s="13"/>
-      <c r="B142" s="14"/>
+    <row r="142" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A142" s="10"/>
+      <c r="B142" s="11"/>
       <c r="C142" s="2"/>
       <c r="D142" s="1"/>
       <c r="E142" s="3"/>
@@ -7665,9 +7667,9 @@
       <c r="AH142" s="2"/>
       <c r="AI142" s="1"/>
     </row>
-    <row r="143" spans="1:35">
-      <c r="A143" s="13"/>
-      <c r="B143" s="14"/>
+    <row r="143" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A143" s="10"/>
+      <c r="B143" s="11"/>
       <c r="C143" s="2"/>
       <c r="D143" s="1"/>
       <c r="E143" s="3"/>
@@ -7714,9 +7716,9 @@
       <c r="AH143" s="2"/>
       <c r="AI143" s="1"/>
     </row>
-    <row r="144" spans="1:35">
-      <c r="A144" s="13"/>
-      <c r="B144" s="14"/>
+    <row r="144" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A144" s="10"/>
+      <c r="B144" s="11"/>
       <c r="C144" s="2"/>
       <c r="D144" s="1"/>
       <c r="E144" s="3"/>
@@ -7763,9 +7765,9 @@
       <c r="AH144" s="2"/>
       <c r="AI144" s="1"/>
     </row>
-    <row r="145" spans="1:35">
-      <c r="A145" s="13"/>
-      <c r="B145" s="14"/>
+    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A145" s="10"/>
+      <c r="B145" s="11"/>
       <c r="C145" s="2"/>
       <c r="D145" s="1"/>
       <c r="E145" s="3"/>
@@ -7812,9 +7814,9 @@
       <c r="AH145" s="2"/>
       <c r="AI145" s="1"/>
     </row>
-    <row r="146" spans="1:35">
-      <c r="A146" s="13"/>
-      <c r="B146" s="14"/>
+    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A146" s="10"/>
+      <c r="B146" s="11"/>
       <c r="C146" s="2"/>
       <c r="D146" s="1"/>
       <c r="E146" s="3"/>
@@ -7861,9 +7863,9 @@
       <c r="AH146" s="2"/>
       <c r="AI146" s="1"/>
     </row>
-    <row r="147" spans="1:35">
-      <c r="A147" s="13"/>
-      <c r="B147" s="14"/>
+    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A147" s="10"/>
+      <c r="B147" s="11"/>
       <c r="C147" s="2"/>
       <c r="D147" s="1"/>
       <c r="E147" s="3"/>
@@ -7910,9 +7912,9 @@
       <c r="AH147" s="2"/>
       <c r="AI147" s="1"/>
     </row>
-    <row r="148" spans="1:35">
-      <c r="A148" s="13"/>
-      <c r="B148" s="14"/>
+    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A148" s="10"/>
+      <c r="B148" s="11"/>
       <c r="C148" s="2"/>
       <c r="D148" s="1"/>
       <c r="E148" s="3"/>
@@ -7959,9 +7961,9 @@
       <c r="AH148" s="2"/>
       <c r="AI148" s="1"/>
     </row>
-    <row r="149" spans="1:35">
-      <c r="A149" s="13"/>
-      <c r="B149" s="14"/>
+    <row r="149" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A149" s="10"/>
+      <c r="B149" s="11"/>
       <c r="C149" s="2"/>
       <c r="D149" s="1"/>
       <c r="E149" s="3"/>
@@ -8008,9 +8010,9 @@
       <c r="AH149" s="2"/>
       <c r="AI149" s="1"/>
     </row>
-    <row r="150" spans="1:35">
-      <c r="A150" s="13"/>
-      <c r="B150" s="14"/>
+    <row r="150" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A150" s="10"/>
+      <c r="B150" s="11"/>
       <c r="C150" s="2"/>
       <c r="D150" s="1"/>
       <c r="E150" s="3"/>
@@ -8057,9 +8059,9 @@
       <c r="AH150" s="2"/>
       <c r="AI150" s="1"/>
     </row>
-    <row r="151" spans="1:35">
-      <c r="A151" s="13"/>
-      <c r="B151" s="14"/>
+    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A151" s="10"/>
+      <c r="B151" s="11"/>
       <c r="C151" s="2"/>
       <c r="D151" s="1"/>
       <c r="E151" s="3"/>
@@ -8106,9 +8108,9 @@
       <c r="AH151" s="2"/>
       <c r="AI151" s="1"/>
     </row>
-    <row r="152" spans="1:35">
-      <c r="A152" s="13"/>
-      <c r="B152" s="14"/>
+    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A152" s="10"/>
+      <c r="B152" s="11"/>
       <c r="C152" s="2"/>
       <c r="D152" s="1"/>
       <c r="E152" s="3"/>
@@ -8155,9 +8157,9 @@
       <c r="AH152" s="2"/>
       <c r="AI152" s="1"/>
     </row>
-    <row r="153" spans="1:35">
-      <c r="A153" s="13"/>
-      <c r="B153" s="14"/>
+    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A153" s="10"/>
+      <c r="B153" s="11"/>
       <c r="C153" s="2"/>
       <c r="D153" s="1"/>
       <c r="E153" s="3"/>
@@ -8204,9 +8206,9 @@
       <c r="AH153" s="2"/>
       <c r="AI153" s="1"/>
     </row>
-    <row r="154" spans="1:35">
-      <c r="A154" s="13"/>
-      <c r="B154" s="14"/>
+    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A154" s="10"/>
+      <c r="B154" s="11"/>
       <c r="C154" s="2"/>
       <c r="D154" s="1"/>
       <c r="E154" s="3"/>
@@ -8253,9 +8255,9 @@
       <c r="AH154" s="2"/>
       <c r="AI154" s="1"/>
     </row>
-    <row r="155" spans="1:35">
-      <c r="A155" s="13"/>
-      <c r="B155" s="14"/>
+    <row r="155" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A155" s="10"/>
+      <c r="B155" s="11"/>
       <c r="C155" s="2"/>
       <c r="D155" s="1"/>
       <c r="E155" s="3"/>
@@ -8302,9 +8304,9 @@
       <c r="AH155" s="2"/>
       <c r="AI155" s="1"/>
     </row>
-    <row r="156" spans="1:35">
-      <c r="A156" s="13"/>
-      <c r="B156" s="14"/>
+    <row r="156" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A156" s="10"/>
+      <c r="B156" s="11"/>
       <c r="C156" s="2"/>
       <c r="D156" s="1"/>
       <c r="E156" s="3"/>
@@ -8351,9 +8353,9 @@
       <c r="AH156" s="2"/>
       <c r="AI156" s="1"/>
     </row>
-    <row r="157" spans="1:35">
-      <c r="A157" s="13"/>
-      <c r="B157" s="14"/>
+    <row r="157" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A157" s="10"/>
+      <c r="B157" s="11"/>
       <c r="C157" s="2"/>
       <c r="D157" s="1"/>
       <c r="E157" s="3"/>
@@ -8400,9 +8402,9 @@
       <c r="AH157" s="2"/>
       <c r="AI157" s="1"/>
     </row>
-    <row r="158" spans="1:35">
-      <c r="A158" s="13"/>
-      <c r="B158" s="14"/>
+    <row r="158" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A158" s="10"/>
+      <c r="B158" s="11"/>
       <c r="C158" s="2"/>
       <c r="D158" s="1"/>
       <c r="E158" s="3"/>
@@ -8449,9 +8451,9 @@
       <c r="AH158" s="2"/>
       <c r="AI158" s="1"/>
     </row>
-    <row r="159" spans="1:35">
-      <c r="A159" s="13"/>
-      <c r="B159" s="14"/>
+    <row r="159" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A159" s="10"/>
+      <c r="B159" s="11"/>
       <c r="C159" s="2"/>
       <c r="D159" s="1"/>
       <c r="E159" s="3"/>
@@ -8498,9 +8500,9 @@
       <c r="AH159" s="2"/>
       <c r="AI159" s="1"/>
     </row>
-    <row r="160" spans="1:35">
-      <c r="A160" s="13"/>
-      <c r="B160" s="14"/>
+    <row r="160" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A160" s="10"/>
+      <c r="B160" s="11"/>
       <c r="C160" s="2"/>
       <c r="D160" s="1"/>
       <c r="E160" s="3"/>
@@ -8547,9 +8549,9 @@
       <c r="AH160" s="2"/>
       <c r="AI160" s="1"/>
     </row>
-    <row r="161" spans="1:35">
-      <c r="A161" s="13"/>
-      <c r="B161" s="14"/>
+    <row r="161" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A161" s="10"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2"/>
       <c r="D161" s="1"/>
       <c r="E161" s="3"/>
@@ -8596,9 +8598,9 @@
       <c r="AH161" s="2"/>
       <c r="AI161" s="1"/>
     </row>
-    <row r="162" spans="1:35">
-      <c r="A162" s="13"/>
-      <c r="B162" s="14"/>
+    <row r="162" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A162" s="10"/>
+      <c r="B162" s="11"/>
       <c r="C162" s="2"/>
       <c r="D162" s="1"/>
       <c r="E162" s="3"/>
@@ -8645,9 +8647,9 @@
       <c r="AH162" s="2"/>
       <c r="AI162" s="1"/>
     </row>
-    <row r="163" spans="1:35">
-      <c r="A163" s="13"/>
-      <c r="B163" s="14"/>
+    <row r="163" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A163" s="10"/>
+      <c r="B163" s="11"/>
       <c r="C163" s="2"/>
       <c r="D163" s="1"/>
       <c r="E163" s="3"/>
@@ -8694,9 +8696,9 @@
       <c r="AH163" s="2"/>
       <c r="AI163" s="1"/>
     </row>
-    <row r="164" spans="1:35">
-      <c r="A164" s="13"/>
-      <c r="B164" s="14"/>
+    <row r="164" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A164" s="10"/>
+      <c r="B164" s="11"/>
       <c r="C164" s="2"/>
       <c r="D164" s="1"/>
       <c r="E164" s="3"/>
@@ -8743,9 +8745,9 @@
       <c r="AH164" s="2"/>
       <c r="AI164" s="1"/>
     </row>
-    <row r="165" spans="1:35">
-      <c r="A165" s="13"/>
-      <c r="B165" s="14"/>
+    <row r="165" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A165" s="10"/>
+      <c r="B165" s="11"/>
       <c r="C165" s="2"/>
       <c r="D165" s="1"/>
       <c r="E165" s="3"/>
@@ -8792,9 +8794,9 @@
       <c r="AH165" s="2"/>
       <c r="AI165" s="1"/>
     </row>
-    <row r="166" spans="1:35">
-      <c r="A166" s="13"/>
-      <c r="B166" s="14"/>
+    <row r="166" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A166" s="10"/>
+      <c r="B166" s="11"/>
       <c r="C166" s="2"/>
       <c r="D166" s="1"/>
       <c r="E166" s="3"/>
@@ -8841,9 +8843,9 @@
       <c r="AH166" s="2"/>
       <c r="AI166" s="1"/>
     </row>
-    <row r="167" spans="1:35">
-      <c r="A167" s="13"/>
-      <c r="B167" s="14"/>
+    <row r="167" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A167" s="10"/>
+      <c r="B167" s="11"/>
       <c r="C167" s="2"/>
       <c r="D167" s="1"/>
       <c r="E167" s="3"/>
@@ -8890,9 +8892,9 @@
       <c r="AH167" s="2"/>
       <c r="AI167" s="1"/>
     </row>
-    <row r="168" spans="1:35">
-      <c r="A168" s="13"/>
-      <c r="B168" s="14"/>
+    <row r="168" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A168" s="10"/>
+      <c r="B168" s="11"/>
       <c r="C168" s="2"/>
       <c r="D168" s="1"/>
       <c r="E168" s="3"/>
@@ -8939,9 +8941,9 @@
       <c r="AH168" s="2"/>
       <c r="AI168" s="1"/>
     </row>
-    <row r="169" spans="1:35">
-      <c r="A169" s="13"/>
-      <c r="B169" s="14"/>
+    <row r="169" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A169" s="10"/>
+      <c r="B169" s="11"/>
       <c r="C169" s="2"/>
       <c r="D169" s="1"/>
       <c r="E169" s="3"/>
@@ -8988,9 +8990,9 @@
       <c r="AH169" s="2"/>
       <c r="AI169" s="1"/>
     </row>
-    <row r="170" spans="1:35">
-      <c r="A170" s="13"/>
-      <c r="B170" s="14"/>
+    <row r="170" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A170" s="10"/>
+      <c r="B170" s="11"/>
       <c r="C170" s="2"/>
       <c r="D170" s="1"/>
       <c r="E170" s="3"/>
@@ -9037,9 +9039,9 @@
       <c r="AH170" s="2"/>
       <c r="AI170" s="1"/>
     </row>
-    <row r="171" spans="1:35">
-      <c r="A171" s="13"/>
-      <c r="B171" s="14"/>
+    <row r="171" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A171" s="10"/>
+      <c r="B171" s="11"/>
       <c r="C171" s="2"/>
       <c r="D171" s="1"/>
       <c r="E171" s="3"/>
@@ -9086,9 +9088,9 @@
       <c r="AH171" s="2"/>
       <c r="AI171" s="1"/>
     </row>
-    <row r="172" spans="1:35">
-      <c r="A172" s="13"/>
-      <c r="B172" s="14"/>
+    <row r="172" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A172" s="10"/>
+      <c r="B172" s="11"/>
       <c r="C172" s="2"/>
       <c r="D172" s="1"/>
       <c r="E172" s="3"/>
@@ -9135,9 +9137,9 @@
       <c r="AH172" s="2"/>
       <c r="AI172" s="1"/>
     </row>
-    <row r="173" spans="1:35">
-      <c r="A173" s="13"/>
-      <c r="B173" s="14"/>
+    <row r="173" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A173" s="10"/>
+      <c r="B173" s="11"/>
       <c r="C173" s="2"/>
       <c r="D173" s="1"/>
       <c r="E173" s="3"/>
@@ -9184,9 +9186,9 @@
       <c r="AH173" s="2"/>
       <c r="AI173" s="1"/>
     </row>
-    <row r="174" spans="1:35">
-      <c r="A174" s="13"/>
-      <c r="B174" s="14"/>
+    <row r="174" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A174" s="10"/>
+      <c r="B174" s="11"/>
       <c r="C174" s="2"/>
       <c r="D174" s="1"/>
       <c r="E174" s="3"/>
@@ -9233,9 +9235,9 @@
       <c r="AH174" s="2"/>
       <c r="AI174" s="1"/>
     </row>
-    <row r="175" spans="1:35">
-      <c r="A175" s="13"/>
-      <c r="B175" s="14"/>
+    <row r="175" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A175" s="10"/>
+      <c r="B175" s="11"/>
       <c r="C175" s="2"/>
       <c r="D175" s="1"/>
       <c r="E175" s="3"/>
@@ -9282,9 +9284,9 @@
       <c r="AH175" s="2"/>
       <c r="AI175" s="1"/>
     </row>
-    <row r="176" spans="1:35">
-      <c r="A176" s="13"/>
-      <c r="B176" s="14"/>
+    <row r="176" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A176" s="10"/>
+      <c r="B176" s="11"/>
       <c r="C176" s="2"/>
       <c r="D176" s="1"/>
       <c r="E176" s="3"/>
@@ -9331,9 +9333,9 @@
       <c r="AH176" s="2"/>
       <c r="AI176" s="1"/>
     </row>
-    <row r="177" spans="1:35">
-      <c r="A177" s="13"/>
-      <c r="B177" s="14"/>
+    <row r="177" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A177" s="10"/>
+      <c r="B177" s="11"/>
       <c r="C177" s="2"/>
       <c r="D177" s="1"/>
       <c r="E177" s="3"/>
@@ -9380,9 +9382,9 @@
       <c r="AH177" s="2"/>
       <c r="AI177" s="1"/>
     </row>
-    <row r="178" spans="1:35">
-      <c r="A178" s="13"/>
-      <c r="B178" s="14"/>
+    <row r="178" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A178" s="10"/>
+      <c r="B178" s="11"/>
       <c r="C178" s="2"/>
       <c r="D178" s="1"/>
       <c r="E178" s="3"/>
@@ -9429,9 +9431,9 @@
       <c r="AH178" s="2"/>
       <c r="AI178" s="1"/>
     </row>
-    <row r="179" spans="1:35">
-      <c r="A179" s="13"/>
-      <c r="B179" s="14"/>
+    <row r="179" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A179" s="10"/>
+      <c r="B179" s="11"/>
       <c r="C179" s="2"/>
       <c r="D179" s="1"/>
       <c r="E179" s="3"/>
@@ -9478,9 +9480,9 @@
       <c r="AH179" s="2"/>
       <c r="AI179" s="1"/>
     </row>
-    <row r="180" spans="1:35">
-      <c r="A180" s="13"/>
-      <c r="B180" s="14"/>
+    <row r="180" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A180" s="10"/>
+      <c r="B180" s="11"/>
       <c r="C180" s="2"/>
       <c r="D180" s="1"/>
       <c r="E180" s="3"/>
@@ -9527,9 +9529,9 @@
       <c r="AH180" s="2"/>
       <c r="AI180" s="1"/>
     </row>
-    <row r="181" spans="1:35">
-      <c r="A181" s="13"/>
-      <c r="B181" s="14"/>
+    <row r="181" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A181" s="10"/>
+      <c r="B181" s="11"/>
       <c r="C181" s="2"/>
       <c r="D181" s="1"/>
       <c r="E181" s="3"/>
@@ -9576,9 +9578,9 @@
       <c r="AH181" s="2"/>
       <c r="AI181" s="1"/>
     </row>
-    <row r="182" spans="1:35">
-      <c r="A182" s="13"/>
-      <c r="B182" s="14"/>
+    <row r="182" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A182" s="10"/>
+      <c r="B182" s="11"/>
       <c r="C182" s="2"/>
       <c r="D182" s="1"/>
       <c r="E182" s="3"/>
@@ -9625,9 +9627,9 @@
       <c r="AH182" s="2"/>
       <c r="AI182" s="1"/>
     </row>
-    <row r="183" spans="1:35">
-      <c r="A183" s="13"/>
-      <c r="B183" s="14"/>
+    <row r="183" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A183" s="10"/>
+      <c r="B183" s="11"/>
       <c r="C183" s="2"/>
       <c r="D183" s="1"/>
       <c r="E183" s="3"/>
@@ -9674,9 +9676,9 @@
       <c r="AH183" s="2"/>
       <c r="AI183" s="1"/>
     </row>
-    <row r="184" spans="1:35">
-      <c r="A184" s="13"/>
-      <c r="B184" s="14"/>
+    <row r="184" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A184" s="10"/>
+      <c r="B184" s="11"/>
       <c r="C184" s="2"/>
       <c r="D184" s="1"/>
       <c r="E184" s="3"/>
@@ -9723,9 +9725,9 @@
       <c r="AH184" s="2"/>
       <c r="AI184" s="1"/>
     </row>
-    <row r="185" spans="1:35">
-      <c r="A185" s="13"/>
-      <c r="B185" s="14"/>
+    <row r="185" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A185" s="10"/>
+      <c r="B185" s="11"/>
       <c r="C185" s="2"/>
       <c r="D185" s="1"/>
       <c r="E185" s="3"/>
@@ -9772,9 +9774,9 @@
       <c r="AH185" s="2"/>
       <c r="AI185" s="1"/>
     </row>
-    <row r="186" spans="1:35">
-      <c r="A186" s="13"/>
-      <c r="B186" s="14"/>
+    <row r="186" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A186" s="10"/>
+      <c r="B186" s="11"/>
       <c r="C186" s="2"/>
       <c r="D186" s="1"/>
       <c r="E186" s="3"/>
@@ -9821,9 +9823,9 @@
       <c r="AH186" s="2"/>
       <c r="AI186" s="1"/>
     </row>
-    <row r="187" spans="1:35">
-      <c r="A187" s="13"/>
-      <c r="B187" s="14"/>
+    <row r="187" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A187" s="10"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="2"/>
       <c r="D187" s="1"/>
       <c r="E187" s="3"/>
@@ -9870,9 +9872,9 @@
       <c r="AH187" s="2"/>
       <c r="AI187" s="1"/>
     </row>
-    <row r="188" spans="1:35">
-      <c r="A188" s="13"/>
-      <c r="B188" s="14"/>
+    <row r="188" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A188" s="10"/>
+      <c r="B188" s="11"/>
       <c r="C188" s="2"/>
       <c r="D188" s="1"/>
       <c r="E188" s="3"/>
@@ -9919,9 +9921,9 @@
       <c r="AH188" s="2"/>
       <c r="AI188" s="1"/>
     </row>
-    <row r="189" spans="1:35">
-      <c r="A189" s="13"/>
-      <c r="B189" s="14"/>
+    <row r="189" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A189" s="10"/>
+      <c r="B189" s="11"/>
       <c r="C189" s="2"/>
       <c r="D189" s="1"/>
       <c r="E189" s="3"/>
@@ -9968,9 +9970,9 @@
       <c r="AH189" s="2"/>
       <c r="AI189" s="1"/>
     </row>
-    <row r="190" spans="1:35">
-      <c r="A190" s="13"/>
-      <c r="B190" s="14"/>
+    <row r="190" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A190" s="10"/>
+      <c r="B190" s="11"/>
       <c r="C190" s="2"/>
       <c r="D190" s="1"/>
       <c r="E190" s="3"/>
@@ -10017,9 +10019,9 @@
       <c r="AH190" s="2"/>
       <c r="AI190" s="1"/>
     </row>
-    <row r="191" spans="1:35">
-      <c r="A191" s="13"/>
-      <c r="B191" s="14"/>
+    <row r="191" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A191" s="10"/>
+      <c r="B191" s="11"/>
       <c r="C191" s="2"/>
       <c r="D191" s="1"/>
       <c r="E191" s="3"/>
@@ -10066,9 +10068,9 @@
       <c r="AH191" s="2"/>
       <c r="AI191" s="1"/>
     </row>
-    <row r="192" spans="1:35">
-      <c r="A192" s="13"/>
-      <c r="B192" s="14"/>
+    <row r="192" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A192" s="10"/>
+      <c r="B192" s="11"/>
       <c r="C192" s="2"/>
       <c r="D192" s="1"/>
       <c r="E192" s="3"/>
@@ -10115,9 +10117,9 @@
       <c r="AH192" s="2"/>
       <c r="AI192" s="1"/>
     </row>
-    <row r="193" spans="1:35">
-      <c r="A193" s="13"/>
-      <c r="B193" s="14"/>
+    <row r="193" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A193" s="10"/>
+      <c r="B193" s="11"/>
       <c r="C193" s="2"/>
       <c r="D193" s="1"/>
       <c r="E193" s="3"/>
@@ -10164,9 +10166,9 @@
       <c r="AH193" s="2"/>
       <c r="AI193" s="1"/>
     </row>
-    <row r="194" spans="1:35">
-      <c r="A194" s="13"/>
-      <c r="B194" s="14"/>
+    <row r="194" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A194" s="10"/>
+      <c r="B194" s="11"/>
       <c r="C194" s="2"/>
       <c r="D194" s="1"/>
       <c r="E194" s="3"/>
@@ -10213,9 +10215,9 @@
       <c r="AH194" s="2"/>
       <c r="AI194" s="1"/>
     </row>
-    <row r="195" spans="1:35">
-      <c r="A195" s="13"/>
-      <c r="B195" s="14"/>
+    <row r="195" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A195" s="10"/>
+      <c r="B195" s="11"/>
       <c r="C195" s="2"/>
       <c r="D195" s="1"/>
       <c r="E195" s="3"/>
@@ -10262,9 +10264,9 @@
       <c r="AH195" s="2"/>
       <c r="AI195" s="1"/>
     </row>
-    <row r="196" spans="1:35">
-      <c r="A196" s="13"/>
-      <c r="B196" s="14"/>
+    <row r="196" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A196" s="10"/>
+      <c r="B196" s="11"/>
       <c r="C196" s="2"/>
       <c r="D196" s="1"/>
       <c r="E196" s="3"/>
@@ -10311,9 +10313,9 @@
       <c r="AH196" s="2"/>
       <c r="AI196" s="1"/>
     </row>
-    <row r="197" spans="1:35">
-      <c r="A197" s="13"/>
-      <c r="B197" s="14"/>
+    <row r="197" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A197" s="10"/>
+      <c r="B197" s="11"/>
       <c r="C197" s="2"/>
       <c r="D197" s="1"/>
       <c r="E197" s="3"/>
@@ -10360,9 +10362,9 @@
       <c r="AH197" s="2"/>
       <c r="AI197" s="1"/>
     </row>
-    <row r="198" spans="1:35">
-      <c r="A198" s="13"/>
-      <c r="B198" s="14"/>
+    <row r="198" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A198" s="10"/>
+      <c r="B198" s="11"/>
       <c r="C198" s="2"/>
       <c r="D198" s="1"/>
       <c r="E198" s="3"/>
@@ -10409,9 +10411,9 @@
       <c r="AH198" s="2"/>
       <c r="AI198" s="1"/>
     </row>
-    <row r="199" spans="1:35">
-      <c r="A199" s="13"/>
-      <c r="B199" s="14"/>
+    <row r="199" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A199" s="10"/>
+      <c r="B199" s="11"/>
       <c r="C199" s="2"/>
       <c r="D199" s="1"/>
       <c r="E199" s="3"/>
@@ -10458,9 +10460,9 @@
       <c r="AH199" s="2"/>
       <c r="AI199" s="1"/>
     </row>
-    <row r="200" spans="1:35">
-      <c r="A200" s="13"/>
-      <c r="B200" s="14"/>
+    <row r="200" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A200" s="10"/>
+      <c r="B200" s="11"/>
       <c r="C200" s="2"/>
       <c r="D200" s="1"/>
       <c r="E200" s="3"/>
@@ -10507,9 +10509,9 @@
       <c r="AH200" s="2"/>
       <c r="AI200" s="1"/>
     </row>
-    <row r="201" spans="1:35">
-      <c r="A201" s="13"/>
-      <c r="B201" s="14"/>
+    <row r="201" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A201" s="10"/>
+      <c r="B201" s="11"/>
       <c r="C201" s="2"/>
       <c r="D201" s="1"/>
       <c r="E201" s="3"/>
@@ -10556,9 +10558,9 @@
       <c r="AH201" s="2"/>
       <c r="AI201" s="1"/>
     </row>
-    <row r="202" spans="1:35">
-      <c r="A202" s="13"/>
-      <c r="B202" s="14"/>
+    <row r="202" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A202" s="10"/>
+      <c r="B202" s="11"/>
       <c r="C202" s="2"/>
       <c r="D202" s="1"/>
       <c r="E202" s="3"/>
@@ -10605,9 +10607,9 @@
       <c r="AH202" s="2"/>
       <c r="AI202" s="1"/>
     </row>
-    <row r="203" spans="1:35">
-      <c r="A203" s="13"/>
-      <c r="B203" s="14"/>
+    <row r="203" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A203" s="10"/>
+      <c r="B203" s="11"/>
       <c r="C203" s="2"/>
       <c r="D203" s="1"/>
       <c r="E203" s="3"/>
@@ -10654,9 +10656,9 @@
       <c r="AH203" s="2"/>
       <c r="AI203" s="1"/>
     </row>
-    <row r="204" spans="1:35">
-      <c r="A204" s="13"/>
-      <c r="B204" s="14"/>
+    <row r="204" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A204" s="10"/>
+      <c r="B204" s="11"/>
       <c r="C204" s="2"/>
       <c r="D204" s="1"/>
       <c r="E204" s="3"/>
@@ -10703,9 +10705,9 @@
       <c r="AH204" s="2"/>
       <c r="AI204" s="1"/>
     </row>
-    <row r="205" spans="1:35">
-      <c r="A205" s="13"/>
-      <c r="B205" s="14"/>
+    <row r="205" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A205" s="10"/>
+      <c r="B205" s="11"/>
       <c r="C205" s="2"/>
       <c r="D205" s="1"/>
       <c r="E205" s="3"/>
@@ -10752,9 +10754,9 @@
       <c r="AH205" s="2"/>
       <c r="AI205" s="1"/>
     </row>
-    <row r="206" spans="1:35">
-      <c r="A206" s="13"/>
-      <c r="B206" s="14"/>
+    <row r="206" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A206" s="10"/>
+      <c r="B206" s="11"/>
       <c r="C206" s="2"/>
       <c r="D206" s="1"/>
       <c r="E206" s="3"/>
@@ -10801,9 +10803,9 @@
       <c r="AH206" s="2"/>
       <c r="AI206" s="1"/>
     </row>
-    <row r="207" spans="1:35">
-      <c r="A207" s="13"/>
-      <c r="B207" s="14"/>
+    <row r="207" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A207" s="10"/>
+      <c r="B207" s="11"/>
       <c r="C207" s="2"/>
       <c r="D207" s="1"/>
       <c r="E207" s="3"/>
@@ -10850,9 +10852,9 @@
       <c r="AH207" s="2"/>
       <c r="AI207" s="1"/>
     </row>
-    <row r="208" spans="1:35">
-      <c r="A208" s="13"/>
-      <c r="B208" s="14"/>
+    <row r="208" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A208" s="10"/>
+      <c r="B208" s="11"/>
       <c r="C208" s="2"/>
       <c r="D208" s="1"/>
       <c r="E208" s="3"/>
@@ -10899,9 +10901,9 @@
       <c r="AH208" s="2"/>
       <c r="AI208" s="1"/>
     </row>
-    <row r="209" spans="1:35">
-      <c r="A209" s="13"/>
-      <c r="B209" s="14"/>
+    <row r="209" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A209" s="10"/>
+      <c r="B209" s="11"/>
       <c r="C209" s="2"/>
       <c r="D209" s="1"/>
       <c r="E209" s="3"/>
@@ -10948,9 +10950,9 @@
       <c r="AH209" s="2"/>
       <c r="AI209" s="1"/>
     </row>
-    <row r="210" spans="1:35">
-      <c r="A210" s="13"/>
-      <c r="B210" s="14"/>
+    <row r="210" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A210" s="10"/>
+      <c r="B210" s="11"/>
       <c r="C210" s="2"/>
       <c r="D210" s="1"/>
       <c r="E210" s="3"/>
@@ -10997,9 +10999,9 @@
       <c r="AH210" s="2"/>
       <c r="AI210" s="1"/>
     </row>
-    <row r="211" spans="1:35">
-      <c r="A211" s="13"/>
-      <c r="B211" s="14"/>
+    <row r="211" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A211" s="10"/>
+      <c r="B211" s="11"/>
       <c r="C211" s="2"/>
       <c r="D211" s="1"/>
       <c r="E211" s="3"/>
@@ -11046,9 +11048,9 @@
       <c r="AH211" s="2"/>
       <c r="AI211" s="1"/>
     </row>
-    <row r="212" spans="1:35">
-      <c r="A212" s="13"/>
-      <c r="B212" s="14"/>
+    <row r="212" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A212" s="10"/>
+      <c r="B212" s="11"/>
       <c r="C212" s="2"/>
       <c r="D212" s="1"/>
       <c r="E212" s="3"/>
@@ -11095,9 +11097,9 @@
       <c r="AH212" s="2"/>
       <c r="AI212" s="1"/>
     </row>
-    <row r="213" spans="1:35">
-      <c r="A213" s="13"/>
-      <c r="B213" s="14"/>
+    <row r="213" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A213" s="10"/>
+      <c r="B213" s="11"/>
       <c r="C213" s="2"/>
       <c r="D213" s="1"/>
       <c r="E213" s="3"/>
@@ -11144,9 +11146,9 @@
       <c r="AH213" s="2"/>
       <c r="AI213" s="1"/>
     </row>
-    <row r="214" spans="1:35">
-      <c r="A214" s="13"/>
-      <c r="B214" s="14"/>
+    <row r="214" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A214" s="10"/>
+      <c r="B214" s="11"/>
       <c r="C214" s="2"/>
       <c r="D214" s="1"/>
       <c r="E214" s="3"/>
@@ -11193,9 +11195,9 @@
       <c r="AH214" s="2"/>
       <c r="AI214" s="1"/>
     </row>
-    <row r="215" spans="1:35">
-      <c r="A215" s="13"/>
-      <c r="B215" s="14"/>
+    <row r="215" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A215" s="10"/>
+      <c r="B215" s="11"/>
       <c r="C215" s="2"/>
       <c r="D215" s="1"/>
       <c r="E215" s="3"/>
@@ -11242,9 +11244,9 @@
       <c r="AH215" s="2"/>
       <c r="AI215" s="1"/>
     </row>
-    <row r="216" spans="1:35">
-      <c r="A216" s="13"/>
-      <c r="B216" s="14"/>
+    <row r="216" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A216" s="10"/>
+      <c r="B216" s="11"/>
       <c r="C216" s="2"/>
       <c r="D216" s="1"/>
       <c r="E216" s="3"/>
@@ -11291,9 +11293,9 @@
       <c r="AH216" s="2"/>
       <c r="AI216" s="1"/>
     </row>
-    <row r="217" spans="1:35">
-      <c r="A217" s="13"/>
-      <c r="B217" s="14"/>
+    <row r="217" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A217" s="10"/>
+      <c r="B217" s="11"/>
       <c r="C217" s="2"/>
       <c r="D217" s="1"/>
       <c r="E217" s="3"/>
@@ -11340,9 +11342,9 @@
       <c r="AH217" s="2"/>
       <c r="AI217" s="1"/>
     </row>
-    <row r="218" spans="1:35">
-      <c r="A218" s="13"/>
-      <c r="B218" s="14"/>
+    <row r="218" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A218" s="10"/>
+      <c r="B218" s="11"/>
       <c r="C218" s="2"/>
       <c r="D218" s="1"/>
       <c r="E218" s="3"/>
@@ -11389,9 +11391,9 @@
       <c r="AH218" s="2"/>
       <c r="AI218" s="1"/>
     </row>
-    <row r="219" spans="1:35">
-      <c r="A219" s="13"/>
-      <c r="B219" s="14"/>
+    <row r="219" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A219" s="10"/>
+      <c r="B219" s="11"/>
       <c r="C219" s="2"/>
       <c r="D219" s="1"/>
       <c r="E219" s="3"/>
@@ -11438,9 +11440,9 @@
       <c r="AH219" s="2"/>
       <c r="AI219" s="1"/>
     </row>
-    <row r="220" spans="1:35">
-      <c r="A220" s="13"/>
-      <c r="B220" s="14"/>
+    <row r="220" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A220" s="10"/>
+      <c r="B220" s="11"/>
       <c r="C220" s="2"/>
       <c r="D220" s="1"/>
       <c r="E220" s="3"/>
@@ -11487,9 +11489,9 @@
       <c r="AH220" s="2"/>
       <c r="AI220" s="1"/>
     </row>
-    <row r="221" spans="1:35">
-      <c r="A221" s="13"/>
-      <c r="B221" s="14"/>
+    <row r="221" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A221" s="10"/>
+      <c r="B221" s="11"/>
       <c r="C221" s="2"/>
       <c r="D221" s="1"/>
       <c r="E221" s="3"/>
@@ -11536,9 +11538,9 @@
       <c r="AH221" s="2"/>
       <c r="AI221" s="1"/>
     </row>
-    <row r="222" spans="1:35">
-      <c r="A222" s="13"/>
-      <c r="B222" s="14"/>
+    <row r="222" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A222" s="10"/>
+      <c r="B222" s="11"/>
       <c r="C222" s="2"/>
       <c r="D222" s="1"/>
       <c r="E222" s="3"/>
@@ -11585,9 +11587,9 @@
       <c r="AH222" s="2"/>
       <c r="AI222" s="1"/>
     </row>
-    <row r="223" spans="1:35">
-      <c r="A223" s="13"/>
-      <c r="B223" s="14"/>
+    <row r="223" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A223" s="10"/>
+      <c r="B223" s="11"/>
       <c r="C223" s="2"/>
       <c r="D223" s="1"/>
       <c r="E223" s="3"/>
@@ -11634,9 +11636,9 @@
       <c r="AH223" s="2"/>
       <c r="AI223" s="1"/>
     </row>
-    <row r="224" spans="1:35">
-      <c r="A224" s="13"/>
-      <c r="B224" s="14"/>
+    <row r="224" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A224" s="10"/>
+      <c r="B224" s="11"/>
       <c r="C224" s="2"/>
       <c r="D224" s="1"/>
       <c r="E224" s="3"/>
@@ -11683,9 +11685,9 @@
       <c r="AH224" s="2"/>
       <c r="AI224" s="1"/>
     </row>
-    <row r="225" spans="1:35">
-      <c r="A225" s="13"/>
-      <c r="B225" s="14"/>
+    <row r="225" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A225" s="10"/>
+      <c r="B225" s="11"/>
       <c r="C225" s="2"/>
       <c r="D225" s="1"/>
       <c r="E225" s="3"/>
@@ -11732,9 +11734,9 @@
       <c r="AH225" s="2"/>
       <c r="AI225" s="1"/>
     </row>
-    <row r="226" spans="1:35">
-      <c r="A226" s="13"/>
-      <c r="B226" s="14"/>
+    <row r="226" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A226" s="10"/>
+      <c r="B226" s="11"/>
       <c r="C226" s="2"/>
       <c r="D226" s="1"/>
       <c r="E226" s="3"/>
@@ -11781,9 +11783,9 @@
       <c r="AH226" s="2"/>
       <c r="AI226" s="1"/>
     </row>
-    <row r="227" spans="1:35">
-      <c r="A227" s="13"/>
-      <c r="B227" s="14"/>
+    <row r="227" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A227" s="10"/>
+      <c r="B227" s="11"/>
       <c r="C227" s="2"/>
       <c r="D227" s="1"/>
       <c r="E227" s="3"/>
@@ -11830,9 +11832,9 @@
       <c r="AH227" s="2"/>
       <c r="AI227" s="1"/>
     </row>
-    <row r="228" spans="1:35">
-      <c r="A228" s="13"/>
-      <c r="B228" s="14"/>
+    <row r="228" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A228" s="10"/>
+      <c r="B228" s="11"/>
       <c r="C228" s="2"/>
       <c r="D228" s="1"/>
       <c r="E228" s="3"/>
@@ -11879,9 +11881,9 @@
       <c r="AH228" s="2"/>
       <c r="AI228" s="1"/>
     </row>
-    <row r="229" spans="1:35">
-      <c r="A229" s="13"/>
-      <c r="B229" s="14"/>
+    <row r="229" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A229" s="10"/>
+      <c r="B229" s="11"/>
       <c r="C229" s="2"/>
       <c r="D229" s="1"/>
       <c r="E229" s="3"/>
@@ -11928,9 +11930,9 @@
       <c r="AH229" s="2"/>
       <c r="AI229" s="1"/>
     </row>
-    <row r="230" spans="1:35">
-      <c r="A230" s="13"/>
-      <c r="B230" s="14"/>
+    <row r="230" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A230" s="10"/>
+      <c r="B230" s="11"/>
       <c r="C230" s="2"/>
       <c r="D230" s="1"/>
       <c r="E230" s="3"/>
@@ -11977,9 +11979,9 @@
       <c r="AH230" s="2"/>
       <c r="AI230" s="1"/>
     </row>
-    <row r="231" spans="1:35">
-      <c r="A231" s="13"/>
-      <c r="B231" s="14"/>
+    <row r="231" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A231" s="10"/>
+      <c r="B231" s="11"/>
       <c r="C231" s="2"/>
       <c r="D231" s="1"/>
       <c r="E231" s="3"/>
@@ -12026,9 +12028,9 @@
       <c r="AH231" s="2"/>
       <c r="AI231" s="1"/>
     </row>
-    <row r="232" spans="1:35">
-      <c r="A232" s="13"/>
-      <c r="B232" s="14"/>
+    <row r="232" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A232" s="10"/>
+      <c r="B232" s="11"/>
       <c r="C232" s="2"/>
       <c r="D232" s="1"/>
       <c r="E232" s="3"/>
@@ -12075,9 +12077,9 @@
       <c r="AH232" s="2"/>
       <c r="AI232" s="1"/>
     </row>
-    <row r="233" spans="1:35">
-      <c r="A233" s="13"/>
-      <c r="B233" s="14"/>
+    <row r="233" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A233" s="10"/>
+      <c r="B233" s="11"/>
       <c r="C233" s="2"/>
       <c r="D233" s="1"/>
       <c r="E233" s="3"/>
@@ -12124,9 +12126,9 @@
       <c r="AH233" s="2"/>
       <c r="AI233" s="1"/>
     </row>
-    <row r="234" spans="1:35">
-      <c r="A234" s="13"/>
-      <c r="B234" s="14"/>
+    <row r="234" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A234" s="10"/>
+      <c r="B234" s="11"/>
       <c r="C234" s="2"/>
       <c r="D234" s="1"/>
       <c r="E234" s="3"/>
@@ -12173,9 +12175,9 @@
       <c r="AH234" s="2"/>
       <c r="AI234" s="1"/>
     </row>
-    <row r="235" spans="1:35">
-      <c r="A235" s="13"/>
-      <c r="B235" s="14"/>
+    <row r="235" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A235" s="10"/>
+      <c r="B235" s="11"/>
       <c r="C235" s="2"/>
       <c r="D235" s="1"/>
       <c r="E235" s="3"/>
@@ -12222,9 +12224,9 @@
       <c r="AH235" s="2"/>
       <c r="AI235" s="1"/>
     </row>
-    <row r="236" spans="1:35">
-      <c r="A236" s="13"/>
-      <c r="B236" s="14"/>
+    <row r="236" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A236" s="10"/>
+      <c r="B236" s="11"/>
       <c r="C236" s="2"/>
       <c r="D236" s="1"/>
       <c r="E236" s="3"/>
@@ -12271,9 +12273,9 @@
       <c r="AH236" s="2"/>
       <c r="AI236" s="1"/>
     </row>
-    <row r="237" spans="1:35">
-      <c r="A237" s="13"/>
-      <c r="B237" s="14"/>
+    <row r="237" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A237" s="10"/>
+      <c r="B237" s="11"/>
       <c r="C237" s="2"/>
       <c r="D237" s="1"/>
       <c r="E237" s="3"/>
@@ -12320,9 +12322,9 @@
       <c r="AH237" s="2"/>
       <c r="AI237" s="1"/>
     </row>
-    <row r="238" spans="1:35">
-      <c r="A238" s="13"/>
-      <c r="B238" s="14"/>
+    <row r="238" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A238" s="10"/>
+      <c r="B238" s="11"/>
       <c r="C238" s="2"/>
       <c r="D238" s="1"/>
       <c r="E238" s="3"/>
@@ -12369,9 +12371,9 @@
       <c r="AH238" s="2"/>
       <c r="AI238" s="1"/>
     </row>
-    <row r="239" spans="1:35">
-      <c r="A239" s="13"/>
-      <c r="B239" s="14"/>
+    <row r="239" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A239" s="10"/>
+      <c r="B239" s="11"/>
       <c r="C239" s="2"/>
       <c r="D239" s="1"/>
       <c r="E239" s="3"/>
@@ -12418,9 +12420,9 @@
       <c r="AH239" s="2"/>
       <c r="AI239" s="1"/>
     </row>
-    <row r="240" spans="1:35">
-      <c r="A240" s="13"/>
-      <c r="B240" s="14"/>
+    <row r="240" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A240" s="10"/>
+      <c r="B240" s="11"/>
       <c r="C240" s="2"/>
       <c r="D240" s="1"/>
       <c r="E240" s="3"/>
@@ -12467,9 +12469,9 @@
       <c r="AH240" s="2"/>
       <c r="AI240" s="1"/>
     </row>
-    <row r="241" spans="1:35">
-      <c r="A241" s="13"/>
-      <c r="B241" s="14"/>
+    <row r="241" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A241" s="10"/>
+      <c r="B241" s="11"/>
       <c r="C241" s="2"/>
       <c r="D241" s="1"/>
       <c r="E241" s="3"/>
@@ -12516,9 +12518,9 @@
       <c r="AH241" s="2"/>
       <c r="AI241" s="1"/>
     </row>
-    <row r="242" spans="1:35">
-      <c r="A242" s="13"/>
-      <c r="B242" s="14"/>
+    <row r="242" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A242" s="10"/>
+      <c r="B242" s="11"/>
       <c r="C242" s="2"/>
       <c r="D242" s="1"/>
       <c r="E242" s="3"/>
@@ -12565,9 +12567,9 @@
       <c r="AH242" s="2"/>
       <c r="AI242" s="1"/>
     </row>
-    <row r="243" spans="1:35">
-      <c r="A243" s="13"/>
-      <c r="B243" s="14"/>
+    <row r="243" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A243" s="10"/>
+      <c r="B243" s="11"/>
       <c r="C243" s="2"/>
       <c r="D243" s="1"/>
       <c r="E243" s="3"/>
@@ -12614,9 +12616,9 @@
       <c r="AH243" s="2"/>
       <c r="AI243" s="1"/>
     </row>
-    <row r="244" spans="1:35">
-      <c r="A244" s="13"/>
-      <c r="B244" s="14"/>
+    <row r="244" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A244" s="10"/>
+      <c r="B244" s="11"/>
       <c r="C244" s="2"/>
       <c r="D244" s="1"/>
       <c r="E244" s="3"/>
@@ -12663,9 +12665,9 @@
       <c r="AH244" s="2"/>
       <c r="AI244" s="1"/>
     </row>
-    <row r="245" spans="1:35">
-      <c r="A245" s="13"/>
-      <c r="B245" s="14"/>
+    <row r="245" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A245" s="10"/>
+      <c r="B245" s="11"/>
       <c r="C245" s="2"/>
       <c r="D245" s="1"/>
       <c r="E245" s="3"/>
@@ -12712,9 +12714,9 @@
       <c r="AH245" s="2"/>
       <c r="AI245" s="1"/>
     </row>
-    <row r="246" spans="1:35">
-      <c r="A246" s="13"/>
-      <c r="B246" s="14"/>
+    <row r="246" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A246" s="10"/>
+      <c r="B246" s="11"/>
       <c r="C246" s="2"/>
       <c r="D246" s="1"/>
       <c r="E246" s="3"/>
@@ -12761,9 +12763,9 @@
       <c r="AH246" s="2"/>
       <c r="AI246" s="1"/>
     </row>
-    <row r="247" spans="1:35">
-      <c r="A247" s="13"/>
-      <c r="B247" s="14"/>
+    <row r="247" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A247" s="10"/>
+      <c r="B247" s="11"/>
       <c r="C247" s="2"/>
       <c r="D247" s="1"/>
       <c r="E247" s="3"/>
@@ -12810,9 +12812,9 @@
       <c r="AH247" s="2"/>
       <c r="AI247" s="1"/>
     </row>
-    <row r="248" spans="1:35">
-      <c r="A248" s="13"/>
-      <c r="B248" s="14"/>
+    <row r="248" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A248" s="10"/>
+      <c r="B248" s="11"/>
       <c r="C248" s="2"/>
       <c r="D248" s="1"/>
       <c r="E248" s="3"/>
@@ -12859,9 +12861,9 @@
       <c r="AH248" s="2"/>
       <c r="AI248" s="1"/>
     </row>
-    <row r="249" spans="1:35">
-      <c r="A249" s="13"/>
-      <c r="B249" s="14"/>
+    <row r="249" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A249" s="10"/>
+      <c r="B249" s="11"/>
       <c r="C249" s="2"/>
       <c r="D249" s="1"/>
       <c r="E249" s="3"/>
@@ -12908,9 +12910,9 @@
       <c r="AH249" s="2"/>
       <c r="AI249" s="1"/>
     </row>
-    <row r="250" spans="1:35">
-      <c r="A250" s="13"/>
-      <c r="B250" s="14"/>
+    <row r="250" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A250" s="10"/>
+      <c r="B250" s="11"/>
       <c r="C250" s="2"/>
       <c r="D250" s="1"/>
       <c r="E250" s="3"/>

--- a/public/templates/review-audit-template.xlsx
+++ b/public/templates/review-audit-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Act/onefile-tools/public/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DADF70-DEA3-7B4D-925C-4FD9D29FE9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE40EF56-42AE-9749-9E36-1B5166A87D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="2920" windowWidth="29340" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,7 +295,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -318,11 +318,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -333,16 +333,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -14013,20 +14003,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AF2:AF250">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF250">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K250">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
